--- a/Error_Handling_scenario.xlsx
+++ b/Error_Handling_scenario.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arora/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3772B3D-5F9F-E34B-952C-E7A59E971924}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BCA58E7-C4DC-0E46-B89C-8521409879D6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16460" xr2:uid="{98E12599-337B-CC4F-9733-71FC162581C1}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16460" activeTab="1" xr2:uid="{98E12599-337B-CC4F-9733-71FC162581C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="127">
   <si>
     <t>#</t>
   </si>
@@ -322,13 +323,402 @@
   </si>
   <si>
     <t>Misplaced defects</t>
+  </si>
+  <si>
+    <t>📊 Reconciliation Deviation Scenarios – Detailed Business Explanation</t>
+  </si>
+  <si>
+    <t>Scenario</t>
+  </si>
+  <si>
+    <t>What the report shows</t>
+  </si>
+  <si>
+    <t>Why this happens (Detailed)</t>
+  </si>
+  <si>
+    <t>Environment scope</t>
+  </si>
+  <si>
+    <t>Should this be flagged as an exception?</t>
+  </si>
+  <si>
+    <t>Business decision needed</t>
+  </si>
+  <si>
+    <t>Matched in both (Backdated)</t>
+  </si>
+  <si>
+    <t>Record exists in Athena and MQS, but timestamp difference exceeds expected window</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In test environments, the application team </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>intentionally backdates quotes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to simulate </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>renewal journeys</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. This changes MQS/Athena timestamps but does not represent data loss.</t>
+    </r>
+  </si>
+  <si>
+    <t>Test only</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">⚠️ </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Optional</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – recommend reporting separately, not failing reconciliation</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Decide whether this should be an </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>informational exception</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in test reports</t>
+    </r>
+  </si>
+  <si>
+    <t>MQS only</t>
+  </si>
+  <si>
+    <t>Record exists in MQS but missing in Athena</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Caused by </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Athena environment instability</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or ingestion issues, where events are not published or consumed correctly. This results in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>analytics data loss</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, not business transaction loss.</t>
+    </r>
+  </si>
+  <si>
+    <t>Test &amp; non-prod</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">❌ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Yes – real deviation</t>
+    </r>
+  </si>
+  <si>
+    <t>Requires Data Engineering / Athena environment remediation</t>
+  </si>
+  <si>
+    <t>CSV quoteId missing MQS prefix</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">QuoteId present but without </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>MQS-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> prefix</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Used by teams to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>distinguish mock services from real services</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> during testing. This affects reconciliation logic but not real business processing.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">⚠️ </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>No</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (exclude from prod-style KPI)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Agree that this is a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>test-only data quality artefact</t>
+    </r>
+  </si>
+  <si>
+    <t>CSV quoteId is NULL</t>
+  </si>
+  <si>
+    <t>CSV record has no quoteId</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Certain products or test scenarios </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>do not generate a quoteId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, or source extract is incomplete. These rows cannot be reconciled technically.</t>
+    </r>
+  </si>
+  <si>
+    <t>Test &amp; prod (product-dependent)</t>
+  </si>
+  <si>
+    <t>⚠️ Informational</t>
+  </si>
+  <si>
+    <t>Exclude from reconciliation denominator</t>
+  </si>
+  <si>
+    <t>Athena only</t>
+  </si>
+  <si>
+    <t>Record exists in Athena but missing in MQS</t>
+  </si>
+  <si>
+    <t>MQS Product Adapter not triggered or still pointing to legacy DB during transition testing</t>
+  </si>
+  <si>
+    <t>Test / transition phase</t>
+  </si>
+  <si>
+    <t>⚠️ Conditional</t>
+  </si>
+  <si>
+    <t>MQS team confirmation required</t>
+  </si>
+  <si>
+    <t>Missing in both Athena &amp; MQS</t>
+  </si>
+  <si>
+    <t>CSV record not found anywhere</t>
+  </si>
+  <si>
+    <t>Source system did not publish event to EventHub, or event was dropped upstream</t>
+  </si>
+  <si>
+    <t>All environments</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">❌ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Critical</t>
+    </r>
+  </si>
+  <si>
+    <t>Immediate investigation required</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -349,6 +739,22 @@
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -371,9 +777,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -690,7 +1097,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD58893F-568A-4946-B883-29C43A7ECAF3}">
   <dimension ref="A2:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:E22"/>
     </sheetView>
   </sheetViews>
@@ -1056,4 +1463,164 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF72DF75-57E6-BF44-9FEC-CF4B7C46DEE6}">
+  <dimension ref="B3:G11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:7" ht="24" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="17" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F9" t="s">
+        <v>113</v>
+      </c>
+      <c r="G9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" t="s">
+        <v>118</v>
+      </c>
+      <c r="F10" t="s">
+        <v>119</v>
+      </c>
+      <c r="G10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" t="s">
+        <v>123</v>
+      </c>
+      <c r="E11" t="s">
+        <v>124</v>
+      </c>
+      <c r="F11" t="s">
+        <v>125</v>
+      </c>
+      <c r="G11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>